--- a/echelon-take-home/test-import-employee.xlsx
+++ b/echelon-take-home/test-import-employee.xlsx
@@ -436,13 +436,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Amanda</v>
+        <v>Jessica</v>
       </c>
       <c r="B2" t="str">
-        <v>Wilson</v>
+        <v>Martinez</v>
       </c>
       <c r="C2" t="str">
-        <v>amanda.wilson@echelon.com</v>
+        <v>jessica.martinez@echelon.com</v>
       </c>
       <c r="D2" t="str">
         <v>+1-555-4321</v>
@@ -457,10 +457,10 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>2024-02-20</v>
-      </c>
-      <c r="I2" t="str">
-        <v>125000</v>
+        <v>2024-04-01</v>
+      </c>
+      <c r="I2">
+        <v>115000</v>
       </c>
       <c r="J2" t="str">
         <v>active</v>
